--- a/datasets/testtimeline.xlsx
+++ b/datasets/testtimeline.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22527"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fonsecam\Documents\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\fonsec16\OneDrive - Michigan State University\Documents\Github\CAFO_June_2020\datasets\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="29" documentId="11_94AEF99AB5F6F294F16A07F83D0337E14D261CEB" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{B878942D-9381-45B9-B837-899CE32E4AB5}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="3030"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="21">
   <si>
     <t>year</t>
   </si>
@@ -84,13 +85,16 @@
   </si>
   <si>
     <t>&lt;img src = "https://flagpedia.net/data/flags/w2560/de.png" height="25" &gt;&lt;/img&gt;</t>
+  </si>
+  <si>
+    <t>ids</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -104,6 +108,12 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -123,15 +133,23 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="1" xr:uid="{7B603030-C1D6-43EA-814E-53F41E0AF2D8}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -408,19 +426,20 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C17"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="93.26953125" customWidth="1"/>
+    <col min="4" max="4" width="8.7265625" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>17</v>
       </c>
@@ -430,8 +449,11 @@
       <c r="C1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D1" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -441,8 +463,11 @@
       <c r="C2" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D2" s="2">
+        <v>1552</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -452,8 +477,11 @@
       <c r="C3" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D3" s="3">
+        <v>1187</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -463,8 +491,11 @@
       <c r="C4" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D4" s="2">
+        <v>2417</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -474,8 +505,11 @@
       <c r="C5" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D5" s="2">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -485,8 +519,11 @@
       <c r="C6" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D6" s="2">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -496,8 +533,11 @@
       <c r="C7" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D7" s="2">
+        <v>713</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -507,8 +547,11 @@
       <c r="C8" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D8" s="2">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -518,8 +561,11 @@
       <c r="C9" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D9" s="2">
+        <v>795</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>9</v>
       </c>
@@ -529,8 +575,11 @@
       <c r="C10" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D10" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -540,8 +589,11 @@
       <c r="C11" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D11" s="2">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -551,8 +603,11 @@
       <c r="C12" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D12" s="2">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -562,8 +617,11 @@
       <c r="C13" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D13" s="2">
+        <v>690</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -573,8 +631,11 @@
       <c r="C14" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D14" s="2">
+        <v>743</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -584,8 +645,11 @@
       <c r="C15" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D15" s="2">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -595,8 +659,11 @@
       <c r="C16" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="D16" s="2">
+        <v>4000</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -605,6 +672,9 @@
       </c>
       <c r="C17" s="1" t="s">
         <v>19</v>
+      </c>
+      <c r="D17" s="2">
+        <v>81</v>
       </c>
     </row>
   </sheetData>
